--- a/elevaciiones_A_x.xlsx
+++ b/elevaciiones_A_x.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/328c94a525d0eb24/Documentos/data_tesis_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03ACB3AE-0BC3-49D6-938F-6FD85802F987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{03ACB3AE-0BC3-49D6-938F-6FD85802F987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5BD5713F-BBB5-42B4-B651-40D0D19CAA4D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{97465950-1BD3-4E1E-AEAB-22235E313F87}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>A_A</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>x_x</t>
+  </si>
+  <si>
+    <t>A-diferencia</t>
+  </si>
+  <si>
+    <t>A(2)x-diferencia</t>
+  </si>
+  <si>
+    <t>A(4)x-diferencia</t>
+  </si>
+  <si>
+    <t>A(8)x-diferencia</t>
+  </si>
+  <si>
+    <t>Ax-diferencia</t>
+  </si>
+  <si>
+    <t>x-diferencia</t>
   </si>
 </sst>
 </file>
@@ -421,15 +439,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F108047-613D-4465-B1A5-E49F65D8B029}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,8 +484,26 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>17</v>
       </c>
@@ -504,8 +540,26 @@
       <c r="L2">
         <v>9</v>
       </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.3125</v>
+      </c>
+      <c r="P2">
+        <v>4.1666666999999998E-2</v>
+      </c>
+      <c r="Q2">
+        <v>0.25806451600000002</v>
+      </c>
+      <c r="R2">
+        <v>0.23076923099999999</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>19</v>
       </c>
@@ -542,8 +596,26 @@
       <c r="L3">
         <v>5</v>
       </c>
+      <c r="N3">
+        <v>-0.117647059</v>
+      </c>
+      <c r="O3">
+        <v>0.27272727299999999</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
+        <v>-0.15384615400000001</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -580,8 +652,26 @@
       <c r="L4">
         <v>6</v>
       </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="P4">
+        <v>8.3333332999999996E-2</v>
+      </c>
+      <c r="Q4">
+        <v>-0.375</v>
+      </c>
+      <c r="R4">
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="S4">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>19</v>
       </c>
@@ -618,8 +708,26 @@
       <c r="L5">
         <v>7</v>
       </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.66666666699999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>13</v>
       </c>
@@ -656,8 +764,26 @@
       <c r="L6">
         <v>11</v>
       </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.625</v>
+      </c>
+      <c r="Q6">
+        <v>0.72727272700000001</v>
+      </c>
+      <c r="R6">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>16</v>
       </c>
@@ -694,8 +820,26 @@
       <c r="L7">
         <v>7</v>
       </c>
+      <c r="N7">
+        <v>0.2</v>
+      </c>
+      <c r="O7">
+        <v>-4.7619047999999997E-2</v>
+      </c>
+      <c r="P7">
+        <v>0.5</v>
+      </c>
+      <c r="Q7">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="R7">
+        <v>-0.2</v>
+      </c>
+      <c r="S7">
+        <v>-7</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -732,8 +876,26 @@
       <c r="L8">
         <v>17</v>
       </c>
+      <c r="N8">
+        <v>-0.14285714299999999</v>
+      </c>
+      <c r="O8">
+        <v>9.0909090999999997E-2</v>
+      </c>
+      <c r="P8">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="Q8">
+        <v>0.368421053</v>
+      </c>
+      <c r="R8">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="S8">
+        <v>0.94444444400000005</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -770,8 +932,26 @@
       <c r="L9">
         <v>-1</v>
       </c>
+      <c r="N9">
+        <v>0.28571428599999998</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.21052631599999999</v>
+      </c>
+      <c r="Q9">
+        <v>0.117647059</v>
+      </c>
+      <c r="R9">
+        <v>6.25E-2</v>
+      </c>
+      <c r="S9">
+        <v>4.5454544999999999E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>16</v>
       </c>
@@ -808,8 +988,26 @@
       <c r="L10">
         <v>32</v>
       </c>
+      <c r="N10">
+        <v>-0.23076923099999999</v>
+      </c>
+      <c r="O10">
+        <v>0.41666666699999999</v>
+      </c>
+      <c r="P10">
+        <v>0.133333333</v>
+      </c>
+      <c r="Q10">
+        <v>0.235294118</v>
+      </c>
+      <c r="R10">
+        <v>0.2</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -845,6 +1043,24 @@
       </c>
       <c r="L11">
         <v>9</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0.3125</v>
+      </c>
+      <c r="P11">
+        <v>0.2</v>
+      </c>
+      <c r="Q11">
+        <v>0.2</v>
+      </c>
+      <c r="R11">
+        <v>-1.5</v>
+      </c>
+      <c r="S11">
+        <v>0.81818181800000001</v>
       </c>
     </row>
   </sheetData>

--- a/elevaciiones_A_x.xlsx
+++ b/elevaciiones_A_x.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/328c94a525d0eb24/Documentos/data_tesis_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{03ACB3AE-0BC3-49D6-938F-6FD85802F987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5BD5713F-BBB5-42B4-B651-40D0D19CAA4D}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{03ACB3AE-0BC3-49D6-938F-6FD85802F987}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5BD5713F-BBB5-42B4-B651-40D0D19CAA4D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{97465950-1BD3-4E1E-AEAB-22235E313F87}"/>
+    <workbookView xWindow="28665" yWindow="-135" windowWidth="20760" windowHeight="11190" xr2:uid="{97465950-1BD3-4E1E-AEAB-22235E313F87}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
